--- a/Stroop_Effect.xlsx
+++ b/Stroop_Effect.xlsx
@@ -8,16 +8,16 @@
     <sheet state="visible" name="InCongruent Data plot" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="Bins">'Congruent Data Plot'!$F$3:$F$26</definedName>
     <definedName name="Incongruent">'InCongruent Data plot'!$B$3:$B$26</definedName>
     <definedName name="Congruent">'Congruent Data Plot'!$B$3:$B$26</definedName>
+    <definedName name="Bins">'Congruent Data Plot'!$F$3:$F$26</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Congruent(X)</t>
   </si>
@@ -25,16 +25,13 @@
     <t>Incongruent(Y)</t>
   </si>
   <si>
-    <t>(Xi - Mean(X))^2</t>
+    <t>d = (Xi - Yi)</t>
   </si>
   <si>
-    <t>(Yi - Mean(Y))^2</t>
+    <t>Sd</t>
   </si>
   <si>
-    <t>SD(X)</t>
-  </si>
-  <si>
-    <t>SD(Y)</t>
+    <t>SE(d)</t>
   </si>
   <si>
     <t>Mean(X)</t>
@@ -55,13 +52,7 @@
     <t>df(Y)</t>
   </si>
   <si>
-    <t>SSx</t>
-  </si>
-  <si>
-    <t>SSy</t>
-  </si>
-  <si>
-    <t>Pooled Variance</t>
+    <t>Mean(d)</t>
   </si>
   <si>
     <t>Standard Error</t>
@@ -82,13 +73,13 @@
     <t>Confidence Interval(High)</t>
   </si>
   <si>
+    <t>Mean</t>
+  </si>
+  <si>
     <t>Bar</t>
   </si>
   <si>
     <t>Histogram</t>
-  </si>
-  <si>
-    <t>Mean</t>
   </si>
   <si>
     <t>Median</t>
@@ -121,19 +112,14 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
@@ -142,17 +128,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -171,7 +155,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr/>
+              <a:defRPr b="1" i="0"/>
             </a:pPr>
             <a:r>
               <a:t>Congruent Words</a:t>
@@ -194,10 +178,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="25400">
+            <a:ln cmpd="sng" w="19050">
               <a:solidFill>
                 <a:srgbClr val="3366CC"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -215,11 +200,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="486997575"/>
-        <c:axId val="994710249"/>
+        <c:axId val="880571362"/>
+        <c:axId val="84750060"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="486997575"/>
+        <c:axId val="880571362"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -230,14 +215,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr/>
+              <a:defRPr b="1" i="0"/>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="994710249"/>
+        <c:crossAx val="84750060"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="994710249"/>
+        <c:axId val="84750060"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -264,12 +249,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr sz="1200"/>
+              <a:defRPr b="1" i="0" sz="1200"/>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486997575"/>
+        <c:crossAx val="880571362"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -289,7 +279,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr/>
+              <a:defRPr b="1" i="0"/>
             </a:pPr>
             <a:r>
               <a:t>Incongruent Words</a:t>
@@ -312,10 +302,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln cmpd="sng" w="25400">
+            <a:ln cmpd="sng" w="19050">
               <a:solidFill>
                 <a:srgbClr val="3366CC"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -333,11 +324,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1775029418"/>
-        <c:axId val="1185412622"/>
+        <c:axId val="1605998922"/>
+        <c:axId val="94850642"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1775029418"/>
+        <c:axId val="1605998922"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -348,14 +339,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr/>
+              <a:defRPr b="1" i="0"/>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1185412622"/>
+        <c:crossAx val="94850642"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1185412622"/>
+        <c:axId val="94850642"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -382,12 +373,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr sz="1200"/>
+              <a:defRPr b="1" i="0" sz="1200"/>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1775029418"/>
+        <c:crossAx val="1605998922"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -453,7 +449,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
+        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -476,14 +472,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
+    <col customWidth="1" min="1" max="5" width="14.43"/>
     <col customWidth="1" min="6" max="6" width="19.14"/>
     <col customWidth="1" min="7" max="7" width="21.0"/>
+    <col customWidth="1" min="8" max="9" width="14.43"/>
     <col customWidth="1" min="10" max="10" width="21.86"/>
+    <col customWidth="1" min="11" max="11" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -491,554 +490,1394 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="B2">
+        <v>12.079</v>
+      </c>
+      <c r="C2">
+        <v>19.278</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F25" si="1">C2-B2</f>
+        <v>7.199</v>
+      </c>
+      <c r="H2">
+        <f>SQRT(sum(F2:F25)/23)</f>
+        <v>2.882895585</v>
+      </c>
+      <c r="I2">
+        <f>H2/SQRT(24)</f>
+        <v>0.5884685972</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="B3">
+        <v>16.791</v>
+      </c>
+      <c r="C3">
+        <v>18.741</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>1.95</v>
+      </c>
+      <c r="J3" t="s">
         <v>5</v>
-      </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4">
-        <v>12.079</v>
-      </c>
-      <c r="C2" s="4">
-        <v>19.278</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ref="F2:G2" si="1">(B2-B$27)^2</f>
-        <v>3.889277016</v>
-      </c>
-      <c r="G2">
-        <f t="shared" si="1"/>
-        <v>7.496187674</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ref="H2:I2" si="2">SQRT(sum(F2:F25)/23)</f>
-        <v>3.559357958</v>
-      </c>
-      <c r="I2">
-        <f t="shared" si="2"/>
-        <v>4.797057122</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4">
-        <v>16.791</v>
-      </c>
-      <c r="C3" s="4">
-        <v>18.741</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:G3" si="3">(B3-B$27)^2</f>
-        <v>7.506915016</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="3"/>
-        <v>10.72507917</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="K3">
         <f>B27</f>
         <v>14.051125</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4">
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="B4">
         <v>9.564</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4">
         <v>21.214</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:G4" si="4">(B4-B$27)^2</f>
-        <v>20.13429077</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="4"/>
-        <v>0.6430703403</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>11.65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
       </c>
       <c r="K4">
         <f>C27</f>
         <v>22.01591667</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4">
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="B5">
         <v>8.63</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>15.687</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:G5" si="5">(B5-B$27)^2</f>
-        <v>29.38859627</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="5"/>
-        <v>40.05518617</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>7.057</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
       </c>
       <c r="K5">
         <f>COUNT(B2:B25)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4">
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="B6">
         <v>14.669</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>22.803</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:G6" si="6">(B6-B$27)^2</f>
-        <v>0.3817695156</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="6"/>
-        <v>0.6195001736</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>8.134</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
       </c>
       <c r="K6">
         <f>COUNT(C2:C25)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4">
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="B7">
         <v>12.238</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>20.878</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:G7" si="7">(B7-B$27)^2</f>
-        <v>3.287422266</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="7"/>
-        <v>1.29485434</v>
-      </c>
-      <c r="J7" s="4" t="s">
+        <f t="shared" si="1"/>
+        <v>8.64</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="B8">
+        <v>14.692</v>
+      </c>
+      <c r="C8">
+        <v>24.572</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>9.88</v>
+      </c>
+      <c r="J8" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K8">
         <v>23.0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4">
-        <v>14.692</v>
-      </c>
-      <c r="C8" s="4">
-        <v>24.572</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ref="F8:G8" si="8">(B8-B$27)^2</f>
-        <v>0.4107207656</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="8"/>
-        <v>6.533562007</v>
-      </c>
-      <c r="J8" s="4" t="s">
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="B9">
+        <v>8.987</v>
+      </c>
+      <c r="C9">
+        <v>17.394</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>8.407</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="4">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4">
-        <v>8.987</v>
-      </c>
-      <c r="C9" s="4">
-        <v>17.394</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ref="F9:G9" si="9">(B9-B$27)^2</f>
-        <v>25.64536202</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="9"/>
-        <v>21.36211367</v>
-      </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9">
+        <f>F27</f>
+        <v>7.964791667</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="B10">
+        <v>9.401</v>
+      </c>
+      <c r="C10">
+        <v>20.762</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>11.361</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="B11">
+        <v>14.48</v>
+      </c>
+      <c r="C11">
+        <v>26.282</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>11.802</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="B12">
+        <v>22.328</v>
+      </c>
+      <c r="C12">
+        <v>24.524</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>2.196</v>
+      </c>
+      <c r="J12" t="s">
         <v>12</v>
       </c>
-      <c r="K9">
-        <f>SUM(F2:F25)</f>
-        <v>291.3876686</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4">
-        <v>9.401</v>
-      </c>
-      <c r="C10" s="4">
-        <v>20.762</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ref="F10:G10" si="10">(B10-B$27)^2</f>
-        <v>21.62366252</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="10"/>
-        <v>1.572307007</v>
-      </c>
-      <c r="J10" s="4" t="s">
+      <c r="K12">
+        <f>I2</f>
+        <v>0.5884685972</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="B13">
+        <v>15.298</v>
+      </c>
+      <c r="C13">
+        <v>18.644</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>3.346</v>
+      </c>
+      <c r="J13" t="s">
         <v>13</v>
       </c>
-      <c r="K10">
-        <f>SUM(G2:G25)</f>
-        <v>529.2704118</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4">
-        <v>14.48</v>
-      </c>
-      <c r="C11" s="4">
-        <v>26.282</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ref="F11:G11" si="11">(B11-B$27)^2</f>
-        <v>0.1839337656</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="11"/>
-        <v>18.19946701</v>
-      </c>
-      <c r="J11" s="4" t="s">
+      <c r="K13">
+        <f>K9/I2</f>
+        <v>13.53477773</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="B14">
+        <v>15.073</v>
+      </c>
+      <c r="C14">
+        <v>17.51</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>2.437</v>
+      </c>
+      <c r="J14" t="s">
         <v>14</v>
       </c>
-      <c r="K11">
-        <f>(K9+K10)/(K7+K8)</f>
-        <v>17.84039305</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4">
-        <v>22.328</v>
-      </c>
-      <c r="C12" s="4">
-        <v>24.524</v>
-      </c>
-      <c r="F12">
-        <f t="shared" ref="F12:G12" si="12">(B12-B$27)^2</f>
-        <v>68.50665977</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="12"/>
-        <v>6.290482007</v>
-      </c>
-      <c r="J12" s="4" t="s">
+      <c r="K14">
+        <v>2.009</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="B15">
+        <v>16.929</v>
+      </c>
+      <c r="C15">
+        <v>20.33</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>3.401</v>
+      </c>
+      <c r="J15" t="s">
         <v>15</v>
-      </c>
-      <c r="K12">
-        <f>SQRT(K11/K5+K11/K6)</f>
-        <v>1.219302842</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4">
-        <v>15.298</v>
-      </c>
-      <c r="C13" s="4">
-        <v>18.644</v>
-      </c>
-      <c r="F13">
-        <f t="shared" ref="F13:G13" si="13">(B13-B$27)^2</f>
-        <v>1.554697266</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="13"/>
-        <v>11.36982201</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13">
-        <f>(K3-K4)/K12</f>
-        <v>-6.532250554</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4">
-        <v>15.073</v>
-      </c>
-      <c r="C14" s="4">
-        <v>17.51</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ref="F14:G14" si="14">(B14-B$27)^2</f>
-        <v>1.044228516</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="14"/>
-        <v>20.30328501</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="4">
-        <v>2.009</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4">
-        <v>16.929</v>
-      </c>
-      <c r="C15" s="4">
-        <v>20.33</v>
-      </c>
-      <c r="F15">
-        <f t="shared" ref="F15:G15" si="15">(B15-B$27)^2</f>
-        <v>8.282164516</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="15"/>
-        <v>2.842315007</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="K15">
         <f>K14*K12</f>
-        <v>2.44957941</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4">
+        <v>1.182233412</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="B16">
         <v>18.2</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16">
         <v>35.255</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:G16" si="16">(B16-B$27)^2</f>
-        <v>17.21316377</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="16"/>
-        <v>175.2733275</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>17.055</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
       </c>
       <c r="K16">
-        <f>(K3-K4)+K15</f>
-        <v>-5.515212257</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4">
+        <f>(K9)-(K14*K12)</f>
+        <v>6.782558255</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="B17">
         <v>12.13</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17">
         <v>22.158</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17:G17" si="17">(B17-B$27)^2</f>
-        <v>3.690721266</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="17"/>
-        <v>0.02018767361</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>10.028</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
       </c>
       <c r="K17">
-        <f>(K3-K4)-K15</f>
-        <v>-10.41437108</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4">
+        <f>(K9)+(K14*K12)</f>
+        <v>9.147025078</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="B18">
         <v>18.495</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18">
         <v>25.139</v>
       </c>
       <c r="F18">
-        <f t="shared" ref="F18:G18" si="18">(B18-B$27)^2</f>
-        <v>19.74802502</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="18"/>
-        <v>9.753649507</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4">
+        <f t="shared" si="1"/>
+        <v>6.644</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="B19">
         <v>10.639</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19">
         <v>20.429</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19:G19" si="19">(B19-B$27)^2</f>
-        <v>11.64259702</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="19"/>
-        <v>2.518304507</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4">
+        <f t="shared" si="1"/>
+        <v>9.79</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="B20">
         <v>11.344</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20">
         <v>17.425</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20:G20" si="20">(B20-B$27)^2</f>
-        <v>7.328525766</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="20"/>
-        <v>21.07651584</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4">
+        <f t="shared" si="1"/>
+        <v>6.081</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="B21">
         <v>12.369</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21">
         <v>34.288</v>
       </c>
       <c r="F21">
-        <f t="shared" ref="F21:G21" si="21">(B21-B$27)^2</f>
-        <v>2.829544516</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="21"/>
-        <v>150.6040293</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4">
+        <f t="shared" si="1"/>
+        <v>21.919</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="B22">
         <v>12.944</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22">
         <v>23.894</v>
       </c>
       <c r="F22">
-        <f t="shared" ref="F22:G22" si="22">(B22-B$27)^2</f>
-        <v>1.225725766</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="22"/>
-        <v>3.527197007</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4">
+        <f t="shared" si="1"/>
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="B23">
         <v>14.233</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23">
         <v>17.96</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="F23:G23" si="23">(B23-B$27)^2</f>
-        <v>0.03307851562</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="23"/>
-        <v>16.45046001</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4">
+        <f t="shared" si="1"/>
+        <v>3.727</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="B24">
         <v>19.71</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24">
         <v>22.058</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24:G24" si="24">(B24-B$27)^2</f>
-        <v>32.02286627</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="24"/>
-        <v>0.001771006944</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4">
+        <f t="shared" si="1"/>
+        <v>2.348</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="B25">
         <v>16.004</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25">
         <v>21.157</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25:G25" si="25">(B25-B$27)^2</f>
-        <v>3.813720766</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="25"/>
-        <v>0.7377378403</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="s">
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>5.153</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27:C27" si="26">AVERAGE(B2:B25)</f>
+        <f t="shared" ref="B27:C27" si="2">AVERAGE(B2:B25)</f>
         <v>14.051125</v>
       </c>
       <c r="C27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="2"/>
         <v>22.01591667</v>
       </c>
-    </row>
+      <c r="F27">
+        <f>AVERAGE(F2:F25)</f>
+        <v>7.964791667</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1049,34 +1888,37 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
+    <col customWidth="1" min="1" max="3" width="14.43"/>
     <col customWidth="1" min="4" max="4" width="17.0"/>
+    <col customWidth="1" min="5" max="7" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="1" ht="15.75" customHeight="1"/>
+    <row r="2" ht="15.75" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="4">
+      <c r="F2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="B3">
         <v>12.079</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>23</v>
+      <c r="D3" t="s">
+        <v>18</v>
       </c>
       <c r="E3">
         <f>AVERAGE(Congruent)</f>
         <v>14.051125</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <v>5.0</v>
       </c>
       <c r="G3">
@@ -1084,12 +1926,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="4">
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="B4">
         <v>16.791</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>24</v>
+      <c r="D4" t="s">
+        <v>21</v>
       </c>
       <c r="E4">
         <f>MEDIAN(Congruent)</f>
@@ -1103,12 +1945,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="4">
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="B5">
         <v>9.564</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>25</v>
+      <c r="D5" t="s">
+        <v>22</v>
       </c>
       <c r="E5">
         <f>STDEV(Congruent)</f>
@@ -1122,8 +1964,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="4">
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="B6">
         <v>8.63</v>
       </c>
       <c r="F6">
@@ -1134,8 +1976,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="4">
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="B7">
         <v>14.669</v>
       </c>
       <c r="F7">
@@ -1146,8 +1988,8 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="4">
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="B8">
         <v>12.238</v>
       </c>
       <c r="F8">
@@ -1158,8 +2000,8 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="4">
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="B9">
         <v>14.692</v>
       </c>
       <c r="F9">
@@ -1170,8 +2012,8 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="4">
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="B10">
         <v>8.987</v>
       </c>
       <c r="F10">
@@ -1182,8 +2024,8 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="4">
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="B11">
         <v>9.401</v>
       </c>
       <c r="F11">
@@ -1194,8 +2036,8 @@
         <v>5.0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="4">
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="B12">
         <v>14.48</v>
       </c>
       <c r="F12">
@@ -1206,8 +2048,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="4">
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="B13">
         <v>22.328</v>
       </c>
       <c r="F13">
@@ -1218,8 +2060,8 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="4">
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="B14">
         <v>15.298</v>
       </c>
       <c r="F14">
@@ -1230,8 +2072,8 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="4">
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="B15">
         <v>15.073</v>
       </c>
       <c r="F15">
@@ -1242,8 +2084,8 @@
         <v>3.0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="4">
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="B16">
         <v>16.929</v>
       </c>
       <c r="F16">
@@ -1254,8 +2096,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" s="4">
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="B17">
         <v>18.2</v>
       </c>
       <c r="F17">
@@ -1266,8 +2108,8 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="4">
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="B18">
         <v>12.13</v>
       </c>
       <c r="F18">
@@ -1278,8 +2120,8 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="4">
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="B19">
         <v>18.495</v>
       </c>
       <c r="F19">
@@ -1290,8 +2132,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="B20" s="4">
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="B20">
         <v>10.639</v>
       </c>
       <c r="F20">
@@ -1302,8 +2144,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" s="4">
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="B21">
         <v>11.344</v>
       </c>
       <c r="F21">
@@ -1314,8 +2156,8 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="B22" s="4">
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="B22">
         <v>12.369</v>
       </c>
       <c r="F22">
@@ -1326,8 +2168,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" s="4">
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="B23">
         <v>12.944</v>
       </c>
       <c r="F23">
@@ -1338,8 +2180,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" s="4">
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="B24">
         <v>14.233</v>
       </c>
       <c r="F24">
@@ -1350,8 +2192,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="B25" s="4">
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="B25">
         <v>19.71</v>
       </c>
       <c r="F25">
@@ -1362,8 +2204,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="B26" s="4">
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="B26">
         <v>16.004</v>
       </c>
       <c r="F26">
@@ -1374,11 +2216,984 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="G27">
         <v>0.0</v>
       </c>
     </row>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1389,34 +3204,37 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
+    <col customWidth="1" min="1" max="3" width="14.43"/>
     <col customWidth="1" min="4" max="4" width="17.0"/>
+    <col customWidth="1" min="5" max="7" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="1" ht="15.75" customHeight="1"/>
+    <row r="2" ht="15.75" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="4">
+      <c r="F2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="B3">
         <v>19.278</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>23</v>
+      <c r="D3" t="s">
+        <v>18</v>
       </c>
       <c r="E3">
         <f>AVERAGE(Incongruent)</f>
         <v>22.01591667</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <v>5.0</v>
       </c>
       <c r="G3">
@@ -1424,12 +3242,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="4">
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="B4">
         <v>18.741</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>24</v>
+      <c r="D4" t="s">
+        <v>21</v>
       </c>
       <c r="E4">
         <f>MEDIAN(Incongruent)</f>
@@ -1443,12 +3261,12 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="4">
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="B5">
         <v>21.214</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>25</v>
+      <c r="D5" t="s">
+        <v>22</v>
       </c>
       <c r="E5">
         <f>STDEV(Incongruent)</f>
@@ -1462,8 +3280,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="4">
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="B6">
         <v>15.687</v>
       </c>
       <c r="F6">
@@ -1474,8 +3292,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="4">
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="B7">
         <v>22.803</v>
       </c>
       <c r="F7">
@@ -1486,8 +3304,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="4">
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="B8">
         <v>20.878</v>
       </c>
       <c r="F8">
@@ -1498,8 +3316,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="4">
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="B9">
         <v>24.572</v>
       </c>
       <c r="F9">
@@ -1510,8 +3328,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="4">
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="B10">
         <v>17.394</v>
       </c>
       <c r="F10">
@@ -1522,8 +3340,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="4">
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="B11">
         <v>20.762</v>
       </c>
       <c r="F11">
@@ -1534,8 +3352,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="4">
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="B12">
         <v>26.282</v>
       </c>
       <c r="F12">
@@ -1546,8 +3364,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="4">
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="B13">
         <v>24.524</v>
       </c>
       <c r="F13">
@@ -1558,8 +3376,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="4">
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="B14">
         <v>18.644</v>
       </c>
       <c r="F14">
@@ -1570,8 +3388,8 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="4">
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="B15">
         <v>17.51</v>
       </c>
       <c r="F15">
@@ -1582,8 +3400,8 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="4">
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="B16">
         <v>20.33</v>
       </c>
       <c r="F16">
@@ -1594,8 +3412,8 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" s="4">
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="B17">
         <v>35.255</v>
       </c>
       <c r="F17">
@@ -1606,8 +3424,8 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="4">
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="B18">
         <v>22.158</v>
       </c>
       <c r="F18">
@@ -1618,8 +3436,8 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="4">
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="B19">
         <v>25.139</v>
       </c>
       <c r="F19">
@@ -1630,8 +3448,8 @@
         <v>4.0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="B20" s="4">
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="B20">
         <v>20.429</v>
       </c>
       <c r="F20">
@@ -1642,8 +3460,8 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" s="4">
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="B21">
         <v>17.425</v>
       </c>
       <c r="F21">
@@ -1654,8 +3472,8 @@
         <v>3.0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="B22" s="4">
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="B22">
         <v>34.288</v>
       </c>
       <c r="F22">
@@ -1666,8 +3484,8 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" s="4">
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="B23">
         <v>23.894</v>
       </c>
       <c r="F23">
@@ -1678,8 +3496,8 @@
         <v>2.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" s="4">
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="B24">
         <v>17.96</v>
       </c>
       <c r="F24">
@@ -1690,8 +3508,8 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="B25" s="4">
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="B25">
         <v>22.058</v>
       </c>
       <c r="F25">
@@ -1702,8 +3520,8 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="B26" s="4">
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="B26">
         <v>21.157</v>
       </c>
       <c r="F26">
@@ -1714,11 +3532,984 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="G27">
         <v>2.0</v>
       </c>
     </row>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
